--- a/paper-model/volume_cases.xlsx
+++ b/paper-model/volume_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rucksack\Jupyter Notebooks\campob\paper-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DF42FC-AA6B-4F60-80A7-320621B6429C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F03839-CDB0-4B68-8C43-5EF88A0F3D41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="volume_cases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Vb</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Vp</t>
   </si>
   <si>
-    <t>OIP</t>
-  </si>
-  <si>
     <t>HCPV</t>
   </si>
   <si>
@@ -49,18 +46,12 @@
     <t>Vp - % Caso 0</t>
   </si>
   <si>
-    <t>OIP - % Caso 0</t>
-  </si>
-  <si>
     <t>HCPV - % Caso 0</t>
   </si>
   <si>
     <t>Vp - % K-Means</t>
   </si>
   <si>
-    <t>OIP - % K-Means</t>
-  </si>
-  <si>
     <t>HCPV - % K-Means</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
   </si>
   <si>
     <t>PHIE</t>
-  </si>
-  <si>
-    <t>Prop.</t>
   </si>
   <si>
     <t>Caso 1</t>
@@ -165,6 +153,18 @@
 SW  &lt; 0.289
 PHIE &gt; 0.254
 N/G = 0 caso contrário. [6]</t>
+  </si>
+  <si>
+    <t>tHCPV</t>
+  </si>
+  <si>
+    <t>tHCPV - % Caso 0</t>
+  </si>
+  <si>
+    <t>rm³</t>
+  </si>
+  <si>
+    <t>Modelo</t>
   </si>
 </sst>
 </file>
@@ -174,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +308,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0A0101"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -672,9 +679,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -717,6 +723,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1072,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A19" sqref="A19:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,335 +1115,669 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="9">
+        <v>1464575253.6486299</v>
+      </c>
+      <c r="C2" s="9">
+        <v>289473679.47855097</v>
+      </c>
+      <c r="D2" s="9">
+        <v>160858746.190146</v>
+      </c>
+      <c r="E2" s="9">
+        <v>58466804.914459698</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" ref="F2:H3" si="0">C2/C$2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1464575253.6486299</v>
+      </c>
+      <c r="C3" s="8">
+        <v>289473679.47855097</v>
+      </c>
+      <c r="D3" s="8">
+        <v>160858746.190146</v>
+      </c>
+      <c r="E3" s="8">
+        <v>160858746.190146</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7512833380495412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B4" s="9">
+        <v>1464575253.6486299</v>
+      </c>
+      <c r="C4" s="9">
+        <v>289498051.92238802</v>
+      </c>
+      <c r="D4" s="9">
+        <v>168253948.44353899</v>
+      </c>
+      <c r="E4" s="9">
+        <v>168253948.44353899</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F11" si="1">C4/C$2</f>
+        <v>1.0000841957164497</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G11" si="2">D4/D$2</f>
+        <v>1.0459732680289038</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H11" si="3">E4/E$2</f>
+        <v>2.8777688243731498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B5" s="8">
+        <v>1464575253.6486299</v>
+      </c>
+      <c r="C5" s="8">
+        <v>289473679.47855097</v>
+      </c>
+      <c r="D5" s="8">
+        <v>168217671.45593601</v>
+      </c>
+      <c r="E5" s="8">
+        <v>168217671.45593601</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0457477472632497</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8771483528482213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1464575253.6486299</v>
+      </c>
+      <c r="C6" s="9">
+        <v>289473679.47855097</v>
+      </c>
+      <c r="D6" s="9">
+        <v>160858746.190146</v>
+      </c>
+      <c r="E6" s="9">
+        <v>45025777.1311839</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="3"/>
+        <v>0.77010839222460004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B7" s="8">
+        <v>1464575253.6486299</v>
+      </c>
+      <c r="C7" s="8">
+        <v>289473679.47855097</v>
+      </c>
+      <c r="D7" s="8">
+        <v>160858746.190146</v>
+      </c>
+      <c r="E7" s="8">
+        <v>13138639.8811443</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.22471964904473379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B8" s="9">
+        <v>1464575253.6486299</v>
+      </c>
+      <c r="C8" s="9">
+        <v>289473679.47855097</v>
+      </c>
+      <c r="D8" s="9">
+        <v>160858746.190146</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2718101.2231662301</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="3"/>
+        <v>4.6489648735602511E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="B9" s="8">
+        <v>969590564.97160399</v>
+      </c>
+      <c r="C9" s="8">
+        <v>209348184.11833319</v>
+      </c>
+      <c r="D9" s="8">
+        <v>103853630.16073149</v>
+      </c>
+      <c r="E9" s="8">
+        <v>103853630.16073149</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.72320282968540217</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.64562004006900209</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7762836589527227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>777965918.69236898</v>
+      </c>
+      <c r="C10" s="9">
+        <v>176532542.18020189</v>
+      </c>
+      <c r="D10" s="9">
+        <v>81402583.081902102</v>
+      </c>
+      <c r="E10" s="9">
+        <v>81402583.081902102</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60983970113691233</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.50605009059114947</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3922871824618905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1464575253.6486299</v>
+      </c>
+      <c r="C11" s="8">
+        <v>289473679.47855097</v>
+      </c>
+      <c r="D11" s="8">
+        <v>160858746.190146</v>
+      </c>
+      <c r="E11" s="8">
+        <v>81279961.6016002</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>1.3901898987043582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
-        <v>1464575253.6486299</v>
-      </c>
-      <c r="C2" s="10">
-        <v>289473679.47855097</v>
-      </c>
-      <c r="D2" s="10">
-        <v>160858746.190146</v>
-      </c>
-      <c r="E2" s="10">
-        <v>58466804.914459698</v>
-      </c>
-      <c r="F2" s="8">
-        <f>C2/C$2</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <f>D2/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <f>E2/E$2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1464575253.6486299</v>
-      </c>
-      <c r="C3" s="9">
-        <v>289473679.47855097</v>
-      </c>
-      <c r="D3" s="9">
-        <v>160858746.190146</v>
-      </c>
-      <c r="E3" s="9">
-        <v>160858746.190146</v>
-      </c>
-      <c r="F3" s="7">
-        <f>C3/C$2</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <f>D3/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <f>E3/E$2</f>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f>LEFT(TEXT(B2,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B2,"0.00E+0"),1)</f>
+        <v>1.4x10^9</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f>LEFT(TEXT(C2,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(C2,"0.00E+0"),1)</f>
+        <v>2.8x10^8</v>
+      </c>
+      <c r="D20" s="9" t="str">
+        <f>LEFT(TEXT(D2,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(D2,"0.00E+0"),1)</f>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f>LEFT(TEXT(E2,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(E2,"0.00E+0"),1)</f>
+        <v>5.8x10^7</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f t="shared" ref="B21:E21" si="4">LEFT(TEXT(B3,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B3,"0.00E+0"),1)</f>
+        <v>1.4x10^9</v>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2.8x10^8</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
         <v>2.7512833380495412</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
-        <v>1464575253.6486299</v>
-      </c>
-      <c r="C4" s="10">
-        <v>289498051.92238802</v>
-      </c>
-      <c r="D4" s="10">
-        <v>168253948.44353899</v>
-      </c>
-      <c r="E4" s="10">
-        <v>168253948.44353899</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F11" si="0">C4/C$2</f>
+      <c r="B22" s="9" t="str">
+        <f t="shared" ref="B22:E22" si="5">LEFT(TEXT(B4,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B4,"0.00E+0"),1)</f>
+        <v>1.4x10^9</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>2.8x10^8</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="F22" s="7">
         <v>1.0000841957164497</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G11" si="1">D4/D$2</f>
+      <c r="G22" s="7">
         <v>1.0459732680289038</v>
       </c>
-      <c r="H4" s="8">
-        <f t="shared" ref="H4:H11" si="2">E4/E$2</f>
+      <c r="H22" s="7">
         <v>2.8777688243731498</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>1464575253.6486299</v>
-      </c>
-      <c r="C5" s="9">
-        <v>289473679.47855097</v>
-      </c>
-      <c r="D5" s="9">
-        <v>168217671.45593601</v>
-      </c>
-      <c r="E5" s="9">
-        <v>168217671.45593601</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="1"/>
+      <c r="B23" s="8" t="str">
+        <f t="shared" ref="B23:E23" si="6">LEFT(TEXT(B5,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B5,"0.00E+0"),1)</f>
+        <v>1.4x10^9</v>
+      </c>
+      <c r="C23" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>2.8x10^8</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
         <v>1.0457477472632497</v>
       </c>
-      <c r="H5" s="7">
-        <f t="shared" si="2"/>
+      <c r="H23" s="6">
         <v>2.8771483528482213</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
-        <v>1464575253.6486299</v>
-      </c>
-      <c r="C6" s="10">
-        <v>289473679.47855097</v>
-      </c>
-      <c r="D6" s="10">
-        <v>160858746.190146</v>
-      </c>
-      <c r="E6" s="10">
-        <v>45025777.1311839</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="2"/>
+      <c r="B24" s="9" t="str">
+        <f t="shared" ref="B24:E24" si="7">LEFT(TEXT(B6,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B6,"0.00E+0"),1)</f>
+        <v>1.4x10^9</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>2.8x10^8</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>4.5x10^7</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
         <v>0.77010839222460004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>1464575253.6486299</v>
-      </c>
-      <c r="C7" s="9">
-        <v>289473679.47855097</v>
-      </c>
-      <c r="D7" s="9">
-        <v>160858746.190146</v>
-      </c>
-      <c r="E7" s="9">
-        <v>13138639.8811443</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="2"/>
+      <c r="B25" s="8" t="str">
+        <f t="shared" ref="B25:E25" si="8">LEFT(TEXT(B7,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B7,"0.00E+0"),1)</f>
+        <v>1.4x10^9</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>2.8x10^8</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>1.3x10^7</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
         <v>0.22471964904473379</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
-        <v>1464575253.6486299</v>
-      </c>
-      <c r="C8" s="10">
-        <v>289473679.47855097</v>
-      </c>
-      <c r="D8" s="10">
-        <v>160858746.190146</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2718101.2231662301</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="2"/>
+      <c r="B26" s="9" t="str">
+        <f t="shared" ref="B26:E26" si="9">LEFT(TEXT(B8,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B8,"0.00E+0"),1)</f>
+        <v>1.4x10^9</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>2.8x10^8</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>2.7x10^6</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
         <v>4.6489648735602511E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <v>969590564.97160399</v>
-      </c>
-      <c r="C9" s="9">
-        <v>209348184.11833319</v>
-      </c>
-      <c r="D9" s="9">
-        <v>103853630.16073149</v>
-      </c>
-      <c r="E9" s="9">
-        <v>103853630.16073149</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
+      <c r="B27" s="8" t="str">
+        <f t="shared" ref="B27:E27" si="10">LEFT(TEXT(B9,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B9,"0.00E+0"),1)</f>
+        <v>9.7x10^8</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>2.0x10^8</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>1.0x10^8</v>
+      </c>
+      <c r="E27" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>1.0x10^8</v>
+      </c>
+      <c r="F27" s="6">
         <v>0.72320282968540217</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
+      <c r="G27" s="6">
         <v>0.64562004006900209</v>
       </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
+      <c r="H27" s="6">
         <v>1.7762836589527227</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
-        <v>777965918.69236898</v>
-      </c>
-      <c r="C10" s="10">
-        <v>176532542.18020189</v>
-      </c>
-      <c r="D10" s="10">
-        <v>81402583.081902102</v>
-      </c>
-      <c r="E10" s="10">
-        <v>81402583.081902102</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
+      <c r="B28" s="9" t="str">
+        <f t="shared" ref="B28:E28" si="11">LEFT(TEXT(B10,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B10,"0.00E+0"),1)</f>
+        <v>7.7x10^8</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>1.7x10^8</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>8.1x10^7</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>8.1x10^7</v>
+      </c>
+      <c r="F28" s="7">
         <v>0.60983970113691233</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
+      <c r="G28" s="7">
         <v>0.50605009059114947</v>
       </c>
-      <c r="H10" s="8">
-        <f t="shared" si="2"/>
+      <c r="H28" s="7">
         <v>1.3922871824618905</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
-        <v>1464575253.6486299</v>
-      </c>
-      <c r="C11" s="9">
-        <v>289473679.47855097</v>
-      </c>
-      <c r="D11" s="9">
-        <v>160858746.190146</v>
-      </c>
-      <c r="E11" s="9">
-        <v>81279961.6016002</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="2"/>
+      <c r="B29" s="19" t="str">
+        <f t="shared" ref="B29:E29" si="12">LEFT(TEXT(B11,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(B11,"0.00E+0"),1)</f>
+        <v>1.4x10^9</v>
+      </c>
+      <c r="C29" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v>2.8x10^8</v>
+      </c>
+      <c r="D29" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v>1.6x10^8</v>
+      </c>
+      <c r="E29" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v>8.1x10^7</v>
+      </c>
+      <c r="F29" s="20">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20">
         <v>1.3901898987043582</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="30" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1428,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6C8222-12D0-4A85-ABB7-733CC94A330D}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,220 +1798,338 @@
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="C4" s="8">
+        <v>494984688.67702901</v>
+      </c>
+      <c r="D4" s="8">
+        <v>80125495.360218093</v>
+      </c>
+      <c r="E4" s="8">
+        <v>57005116.029414602</v>
+      </c>
+      <c r="F4" s="6">
+        <f>D4/D$4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <f>E4/E$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="C5" s="9">
+        <v>599029636.526788</v>
+      </c>
+      <c r="D5" s="9">
+        <v>128637460.14322899</v>
+      </c>
+      <c r="E5" s="9">
+        <v>56538027.853806399</v>
+      </c>
+      <c r="F5" s="7">
+        <f>D5/D$5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <f>E5/E$5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="C6" s="8">
+        <v>370560928.44481599</v>
+      </c>
+      <c r="D6" s="8">
+        <v>80710723.975104198</v>
+      </c>
+      <c r="E6" s="8">
+        <v>47315602.306925103</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6/D$6</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <f>E6/E$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
-        <v>494984688.67702901</v>
-      </c>
-      <c r="D4" s="9">
-        <v>80125495.360218093</v>
-      </c>
-      <c r="E4" s="9">
-        <v>57005116.029414602</v>
-      </c>
-      <c r="F4" s="9">
-        <v>57005116.029414602</v>
-      </c>
-      <c r="G4" s="7">
-        <f>D4/D$4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <f>E4/E$4</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <f>F4/F$4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10">
-        <v>599029636.526788</v>
-      </c>
-      <c r="D5" s="10">
-        <v>128637460.14322899</v>
-      </c>
-      <c r="E5" s="10">
-        <v>56538027.853806399</v>
-      </c>
-      <c r="F5" s="10">
-        <v>56538027.853806399</v>
-      </c>
-      <c r="G5" s="8">
-        <f>D5/D$5</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <f>E5/E$5</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <f>F5/F$5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9">
-        <v>370560928.44481599</v>
-      </c>
-      <c r="D6" s="9">
-        <v>80710723.975104198</v>
-      </c>
-      <c r="E6" s="9">
-        <v>47315602.306925103</v>
-      </c>
-      <c r="F6" s="9">
-        <v>47315602.306925103</v>
-      </c>
-      <c r="G6" s="7">
-        <f>D6/D$6</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <f>E6/E$6</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <f>F6/F$6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>686609334.95626497</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>112941137.29834899</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>79456163.108244002</v>
       </c>
-      <c r="F7" s="10">
-        <v>79456163.108244002</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
         <f>D7/D$4</f>
         <v>1.40955306161419</v>
       </c>
-      <c r="H7" s="8">
+      <c r="G7" s="7">
         <f>E7/E$4</f>
         <v>1.3938426696166126</v>
       </c>
-      <c r="I7" s="8">
-        <f>F7/F$4</f>
-        <v>1.3938426696166126</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
         <v>385372060.24230802</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>92060718.182373002</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>32318450.780407801</v>
       </c>
-      <c r="F8" s="9">
-        <v>32318450.780407801</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="6">
         <f>D8/D$5</f>
         <v>0.71566026008185879</v>
       </c>
-      <c r="H8" s="7">
+      <c r="G8" s="6">
         <f>E8/E$5</f>
         <v>0.57162324204118797</v>
       </c>
-      <c r="I8" s="7">
-        <f>F8/F$5</f>
-        <v>0.57162324204118797</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9">
         <v>392593858.45006102</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>84471823.997828901</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>49084132.3014943</v>
       </c>
-      <c r="F9" s="10">
-        <v>49084132.3014943</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="7">
         <f>D9/D$6</f>
         <v>1.0465997557385911</v>
       </c>
-      <c r="H9" s="8">
+      <c r="G9" s="7">
         <f>E9/E$6</f>
         <v>1.0373773112534246</v>
       </c>
-      <c r="I9" s="8">
-        <f>F9/F$6</f>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>LEFT(TEXT(C4,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(C4,"0.00E+0"),1)</f>
+        <v>4.9x10^8</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>LEFT(TEXT(D4,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(D4,"0.00E+0"),1)</f>
+        <v>8.0x10^7</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f>LEFT(TEXT(E4,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(E4,"0.00E+0"),1)</f>
+        <v>5.7x10^7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f t="shared" ref="C13:E13" si="0">LEFT(TEXT(C5,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(C5,"0.00E+0"),1)</f>
+        <v>5.9x10^8</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>1.2x10^8</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>5.6x10^7</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f t="shared" ref="C14:E14" si="1">LEFT(TEXT(C6,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(C6,"0.00E+0"),1)</f>
+        <v>3.7x10^8</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>8.0x10^7</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4.7x10^7</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f t="shared" ref="C15:E15" si="2">LEFT(TEXT(C7,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(C7,"0.00E+0"),1)</f>
+        <v>6.8x10^8</v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>1.1x10^8</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>7.9x10^7</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.40955306161419</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.3938426696166126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f t="shared" ref="C16:E16" si="3">LEFT(TEXT(C8,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(C8,"0.00E+0"),1)</f>
+        <v>3.8x10^8</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>9.2x10^7</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>3.2x10^7</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.71566026008185879</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.57162324204118797</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f t="shared" ref="C17:E17" si="4">LEFT(TEXT(C9,"0.00E+0"),3) &amp; "x10^" &amp; RIGHT(TEXT(C9,"0.00E+0"),1)</f>
+        <v>3.9x10^8</v>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>8.4x10^7</v>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>4.9x10^7</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1.0465997557385911</v>
+      </c>
+      <c r="G17" s="23">
         <v>1.0373773112534246</v>
       </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1663,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0A5538-2A83-46AC-9CAF-B0FA37FFE240}">
   <dimension ref="G17:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,155 +2150,155 @@
   </cols>
   <sheetData>
     <row r="17" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="H20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="H21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="G22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="14" t="s">
+      <c r="H22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="G23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="G24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G21" s="11" t="s">
+    <row r="25" spans="7:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="G25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="G22" s="14" t="s">
+      <c r="H25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="G26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="7:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="G23" s="11" t="s">
+      <c r="H26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="7:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="G24" s="14" t="s">
+      <c r="H27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="7:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="G25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="7:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="G26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="7:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
